--- a/tine20/Addressbook/Export/templates/SimpleGroupList.xlsx
+++ b/tine20/Addressbook/Export/templates/SimpleGroupList.xlsx
@@ -224,7 +224,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Bild 1" descr="${abc}" title="${_branding_logo}"/>
+        <xdr:cNvPr id="2" name="Bild 1" descr="${abc}" title="${twig:branding.logo}"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
